--- a/data/trans_camb/P25A_5_R2-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P25A_5_R2-Estudios-trans_camb.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K19"/>
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,67 +548,103 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
       <c r="B2" s="2" t="n"/>
       <c r="C2" s="3" t="inlineStr">
         <is>
+          <t>M3/M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="D2" s="3" t="inlineStr">
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="E2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="F2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M3/M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
-        </is>
-      </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M4/M2</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
-        <is>
-          <t>M3/M2</t>
-        </is>
-      </c>
-      <c r="K2" s="3" t="inlineStr">
-        <is>
-          <t>Mz1/M2</t>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M5/M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/M5</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2/Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>-1,0</t>
+          <t>2,65</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>1,15</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>43,0</t>
+          <t>-0,07</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-1,8</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>-1,57</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>30,24</t>
+          <t>-1,4</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>-1,44</t>
+          <t>-2,11</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>-0,38</t>
+          <t>5,83</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>35,59</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>0,41</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>-1,2</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>3,57</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-4,53; 0,94</t>
+          <t>-1,02; 5,64</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-2,2; 3,77</t>
+          <t>-4,24; 1,56</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>20,22; 66,52</t>
+          <t>-4,14; 1,71</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-5,53; 1,49</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-5,29; 1,8</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>13,06; 51,73</t>
+          <t>-7,21; 2,46</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-3,84; 0,62</t>
+          <t>-7,98; 1,39</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-2,84; 1,76</t>
+          <t>-0,87; 18,17</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>20,23; 50,05</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>-3,08; 3,21</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>-4,9; 1,17</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 11,08</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -738,47 +846,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>-49,56%</t>
+          <t>233,75%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>56,98%</t>
+          <t>-6,77%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>2128,62%</t>
+          <t>-6,29%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>-36,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>-31,85%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>612,03%</t>
+          <t>-26,05%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>-39,48%</t>
+          <t>-39,16%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>-10,28%</t>
+          <t>108,42%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>973,6%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>11,76%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>-34,47%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>102,71%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -796,42 +934,72 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-70,01; 672,47</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>320,42; 10763,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>-75,55; 62,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-70,89; 72,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>211,85; 1581,32</t>
+          <t>-77,23; 112,69</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>-71,26; 35,0</t>
+          <t>-80,77; 64,56</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-55,3; 77,72</t>
+          <t>-23,88; 708,86</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>435,69; 2156,9</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>-56,12; 220,07</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>-77,45; 83,13</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>-22,03; 647,68</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -848,47 +1016,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>0,15</t>
+          <t>-0,55</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>0,37</t>
+          <t>-0,08</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>29,26</t>
+          <t>0,05</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>1,24</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>-0,39</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>41,68</t>
+          <t>-0,14</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>0,66</t>
+          <t>1,94</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>-0,01</t>
+          <t>2,47</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>35,43</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>-0,35</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>0,89</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>1,26</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -901,47 +1099,77 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>-1,09; 1,22</t>
+          <t>-2,37; 0,7</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-1,03; 1,67</t>
+          <t>-1,93; 1,16</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>16,5; 46,66</t>
+          <t>-1,73; 1,77</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>-0,46; 3,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>-1,8; 0,81</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>29,06; 56,95</t>
+          <t>-1,95; 1,21</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>-0,31; 1,97</t>
+          <t>-0,06; 5,62</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>-1,0; 0,93</t>
+          <t>0,34; 4,6</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>25,62; 47,29</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 0,51</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>-0,38; 2,57</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>-0,01; 2,68</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -954,47 +1182,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>15,73%</t>
+          <t>-47,42%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>39,45%</t>
+          <t>-7,03%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>3108,9%</t>
+          <t>4,13%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>75,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>-23,68%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>2531,59%</t>
+          <t>-10,44%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>50,85%</t>
+          <t>141,36%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>-0,62%</t>
+          <t>179,58%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>2739,88%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>-27,33%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>69,87%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>99,58%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1007,47 +1265,77 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>-70,01; 474,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-71,05; 493,6</t>
+          <t>-79,47; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>909,86; 15534,68</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>-30,47; 324,94</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>-72,37; 95,99</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>1269,7; 6089,18</t>
+          <t>-78,43; 261,32</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>-21,71; 257,42</t>
+          <t>-29,56; 881,06</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>-55,84; 111,68</t>
+          <t>9,31; 927,84</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>1343,24; 5428,93</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>-74,88; 79,79</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>-28,79; 346,54</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>-7,98; 361,63</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1064,47 +1352,77 @@
       </c>
       <c r="C12" s="2" t="inlineStr">
         <is>
+          <t>0,67</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
           <t>1,61</t>
         </is>
       </c>
-      <c r="D12" s="2" t="inlineStr">
-        <is>
-          <t>1,24</t>
-        </is>
-      </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>35,4</t>
+          <t>1,51</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>0,78</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>1,77</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>6,33</t>
+          <t>2,62</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>1,2</t>
+          <t>1,37</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
         <is>
-          <t>1,52</t>
+          <t>1,97</t>
         </is>
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>15,02</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>1,48</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>1,75</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1117,47 +1435,77 @@
       </c>
       <c r="C13" s="2" t="inlineStr">
         <is>
-          <t>0,17; 4,34</t>
+          <t>-1,23; 2,25</t>
         </is>
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>-0,14; 3,09</t>
+          <t>-0,1; 3,94</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>9,02; 76,17</t>
+          <t>-0,45; 5,21</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>-0,88; 2,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
         <is>
-          <t>-0,09; 3,86</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H13" s="2" t="inlineStr">
         <is>
-          <t>-1,56; 21,96</t>
+          <t>0,71; 4,7</t>
         </is>
       </c>
       <c r="I13" s="2" t="inlineStr">
         <is>
-          <t>0,01; 2,59</t>
+          <t>-0,41; 3,13</t>
         </is>
       </c>
       <c r="J13" s="2" t="inlineStr">
         <is>
-          <t>0,26; 2,76</t>
+          <t>-0,05; 4,04</t>
         </is>
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>4,81; 31,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>0,38; 3,02</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>0,29; 2,99</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>0,28; 3,39</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1170,47 +1518,77 @@
       </c>
       <c r="C14" s="2" t="inlineStr">
         <is>
-          <t>213,23%</t>
+          <t>81,93%</t>
         </is>
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>164,09%</t>
+          <t>196,21%</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>4673,56%</t>
+          <t>184,56%</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>50,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>113,33%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>405,8%</t>
+          <t>270,54%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>103,95%</t>
+          <t>141,91%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
         <is>
-          <t>131,79%</t>
+          <t>203,21%</t>
         </is>
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>1299,07%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>189,57%</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>165,88%</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>195,15%</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1223,12 +1601,12 @@
       </c>
       <c r="C15" s="2" t="inlineStr">
         <is>
-          <t>-36,08; —</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>-47,98; 1261,74</t>
+          <t>-40,49; —</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
@@ -1238,39 +1616,69 @@
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>-42,74; 366,89</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>-19,58; 631,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>-100,0; 3355,51</t>
+          <t>13,18; 1666,13</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>-6,27; 433,96</t>
+          <t>-44,1; 1241,04</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
         <is>
-          <t>4,61; 446,18</t>
+          <t>-46,91; 1106,01</t>
         </is>
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>268,48; 3739,66</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>9,55; 822,38</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>3,42; 702,94</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1,21; 964,61</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B16" s="3" t="inlineStr">
@@ -1280,47 +1688,77 @@
       </c>
       <c r="C16" s="2" t="inlineStr">
         <is>
-          <t>0,39</t>
+          <t>1,52</t>
         </is>
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>0,85</t>
+          <t>—</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>34,05</t>
+          <t>-0,58</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>0,07</t>
+          <t>—</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>30,0</t>
+          <t>-1,62</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>0,4</t>
+          <t>—</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
         <is>
-          <t>0,45</t>
+          <t>4,33</t>
         </is>
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>31,83</t>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M16" s="2" t="inlineStr">
+        <is>
+          <t>0,0</t>
+        </is>
+      </c>
+      <c r="N16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O16" s="2" t="inlineStr">
+        <is>
+          <t>1,7</t>
+        </is>
+      </c>
+      <c r="P16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q16" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
         </is>
       </c>
     </row>
@@ -1333,47 +1771,77 @@
       </c>
       <c r="C17" s="2" t="inlineStr">
         <is>
-          <t>-0,56; 1,41</t>
+          <t>-0,71; 4,34</t>
         </is>
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>-0,23; 1,88</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>22,08; 46,43</t>
+          <t>-2,41; 0,86</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>-0,79; 1,83</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>-1,07; 1,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>21,53; 40,15</t>
+          <t>-4,33; 0,92</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>-0,41; 1,17</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
         <is>
-          <t>-0,4; 1,24</t>
+          <t>0,9; 8,62</t>
         </is>
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>24,7; 40,2</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M17" s="2" t="inlineStr">
+        <is>
+          <t>-1,75; 1,69</t>
+        </is>
+      </c>
+      <c r="N17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O17" s="2" t="inlineStr">
+        <is>
+          <t>-0,37; 3,68</t>
+        </is>
+      </c>
+      <c r="P17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q17" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -1386,47 +1854,77 @@
       </c>
       <c r="C18" s="2" t="inlineStr">
         <is>
-          <t>36,07%</t>
+          <t>111,55%</t>
         </is>
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>78,44%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>3136,95%</t>
+          <t>-42,4%</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>16,93%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
         <is>
-          <t>3,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H18" s="2" t="inlineStr">
         <is>
-          <t>1262,69%</t>
+          <t>-45,06%</t>
         </is>
       </c>
       <c r="I18" s="2" t="inlineStr">
         <is>
-          <t>22,77%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J18" s="2" t="inlineStr">
         <is>
-          <t>26,04%</t>
+          <t>120,04%</t>
         </is>
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>1824,53%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M18" s="2" t="inlineStr">
+        <is>
+          <t>0,01%</t>
+        </is>
+      </c>
+      <c r="N18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O18" s="2" t="inlineStr">
+        <is>
+          <t>69,2%</t>
+        </is>
+      </c>
+      <c r="P18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q18" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1439,60 +1937,434 @@
       </c>
       <c r="C19" s="2" t="inlineStr">
         <is>
-          <t>-38,92; 226,39</t>
+          <t>-49,16; 698,28</t>
         </is>
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>-19,9; 296,76</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>1485,93; 6859,89</t>
+          <t>-100,0; 231,62</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>-29,0; 103,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>-37,14; 69,78</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>743,15; 2108,48</t>
+          <t>-83,32; 55,25</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>-18,7; 90,55</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
         <is>
-          <t>-18,94; 91,47</t>
+          <t>6,09; 349,6</t>
         </is>
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>1178,38; 2813,63</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M19" s="2" t="inlineStr">
+        <is>
+          <t>-54,67; 103,76</t>
+        </is>
+      </c>
+      <c r="N19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O19" s="2" t="inlineStr">
+        <is>
+          <t>-15,36; 212,01</t>
+        </is>
+      </c>
+      <c r="P19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q19" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B20" s="3" t="inlineStr">
+        <is>
+          <t>Cambio absoluto (puntos porcentuales)</t>
+        </is>
+      </c>
+      <c r="C20" s="2" t="inlineStr">
+        <is>
+          <t>0,71</t>
+        </is>
+      </c>
+      <c r="D20" s="2" t="inlineStr">
+        <is>
+          <t>0,33</t>
+        </is>
+      </c>
+      <c r="E20" s="2" t="inlineStr">
+        <is>
+          <t>0,15</t>
+        </is>
+      </c>
+      <c r="F20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="G20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H20" s="2" t="inlineStr">
+        <is>
+          <t>-0,12</t>
+        </is>
+      </c>
+      <c r="I20" s="2" t="inlineStr">
+        <is>
+          <t>0,36</t>
+        </is>
+      </c>
+      <c r="J20" s="2" t="inlineStr">
+        <is>
+          <t>3,42</t>
+        </is>
+      </c>
+      <c r="K20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="L20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="M20" s="2" t="inlineStr">
+        <is>
+          <t>0,28</t>
+        </is>
+      </c>
+      <c r="N20" s="2" t="inlineStr">
+        <is>
+          <t>0,34</t>
+        </is>
+      </c>
+      <c r="O20" s="2" t="inlineStr">
+        <is>
+          <t>1,83</t>
+        </is>
+      </c>
+      <c r="P20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="Q20" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n"/>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C21" s="2" t="inlineStr">
+        <is>
+          <t>-0,3; 1,76</t>
+        </is>
+      </c>
+      <c r="D21" s="2" t="inlineStr">
+        <is>
+          <t>-0,66; 1,3</t>
+        </is>
+      </c>
+      <c r="E21" s="2" t="inlineStr">
+        <is>
+          <t>-0,93; 1,12</t>
+        </is>
+      </c>
+      <c r="F21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H21" s="2" t="inlineStr">
+        <is>
+          <t>-1,49; 1,19</t>
+        </is>
+      </c>
+      <c r="I21" s="2" t="inlineStr">
+        <is>
+          <t>-1,02; 2,08</t>
+        </is>
+      </c>
+      <c r="J21" s="2" t="inlineStr">
+        <is>
+          <t>1,62; 5,9</t>
+        </is>
+      </c>
+      <c r="K21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M21" s="2" t="inlineStr">
+        <is>
+          <t>-0,51; 1,11</t>
+        </is>
+      </c>
+      <c r="N21" s="2" t="inlineStr">
+        <is>
+          <t>-0,45; 1,43</t>
+        </is>
+      </c>
+      <c r="O21" s="2" t="inlineStr">
+        <is>
+          <t>0,81; 3,18</t>
+        </is>
+      </c>
+      <c r="P21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q21" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n"/>
+      <c r="B22" s="3" t="inlineStr">
+        <is>
+          <t>Cambio relativo (%)</t>
+        </is>
+      </c>
+      <c r="C22" s="2" t="inlineStr">
+        <is>
+          <t>60,5%</t>
+        </is>
+      </c>
+      <c r="D22" s="2" t="inlineStr">
+        <is>
+          <t>27,89%</t>
+        </is>
+      </c>
+      <c r="E22" s="2" t="inlineStr">
+        <is>
+          <t>12,79%</t>
+        </is>
+      </c>
+      <c r="F22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H22" s="2" t="inlineStr">
+        <is>
+          <t>-4,69%</t>
+        </is>
+      </c>
+      <c r="I22" s="2" t="inlineStr">
+        <is>
+          <t>13,78%</t>
+        </is>
+      </c>
+      <c r="J22" s="2" t="inlineStr">
+        <is>
+          <t>130,49%</t>
+        </is>
+      </c>
+      <c r="K22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M22" s="2" t="inlineStr">
+        <is>
+          <t>14,89%</t>
+        </is>
+      </c>
+      <c r="N22" s="2" t="inlineStr">
+        <is>
+          <t>17,96%</t>
+        </is>
+      </c>
+      <c r="O22" s="2" t="inlineStr">
+        <is>
+          <t>95,66%</t>
+        </is>
+      </c>
+      <c r="P22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q22" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n"/>
+      <c r="B23" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C23" s="2" t="inlineStr">
+        <is>
+          <t>-20,92; 266,1</t>
+        </is>
+      </c>
+      <c r="D23" s="2" t="inlineStr">
+        <is>
+          <t>-40,89; 192,14</t>
+        </is>
+      </c>
+      <c r="E23" s="2" t="inlineStr">
+        <is>
+          <t>-55,7; 162,51</t>
+        </is>
+      </c>
+      <c r="F23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H23" s="2" t="inlineStr">
+        <is>
+          <t>-41,82; 61,95</t>
+        </is>
+      </c>
+      <c r="I23" s="2" t="inlineStr">
+        <is>
+          <t>-33,58; 107,24</t>
+        </is>
+      </c>
+      <c r="J23" s="2" t="inlineStr">
+        <is>
+          <t>43,02; 284,54</t>
+        </is>
+      </c>
+      <c r="K23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M23" s="2" t="inlineStr">
+        <is>
+          <t>-23,11; 76,47</t>
+        </is>
+      </c>
+      <c r="N23" s="2" t="inlineStr">
+        <is>
+          <t>-22,36; 92,63</t>
+        </is>
+      </c>
+      <c r="O23" s="2" t="inlineStr">
+        <is>
+          <t>32,04; 196,51</t>
+        </is>
+      </c>
+      <c r="P23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q23" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A4:A7"/>
-    <mergeCell ref="C1:E1"/>
     <mergeCell ref="A8:A11"/>
-    <mergeCell ref="F1:H1"/>
+    <mergeCell ref="C1:G1"/>
     <mergeCell ref="A12:A15"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A16:A19"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
